--- a/客户要求/附件2：百濟美工作業現況vs開發自動化評估對比-单页.xlsx
+++ b/客户要求/附件2：百濟美工作業現況vs開發自動化評估對比-单页.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Youth/Youth/Cus/CCW/药标开发/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tiandiyiqi/Documents/Prepress/LabelMedix/客户要求/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A06E477-F6F7-DA4D-B813-445EDB63A918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71140B3-7554-AF4F-B83F-28E853E31147}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{44561D80-78CF-4B21-A9EC-1CC91EC5D827}"/>
   </bookViews>
   <sheets>
     <sheet name="百濟美工作業現況vs開發自動化評估對比（单页）" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'百濟美工作業現況vs開發自動化評估對比（单页）'!$A$1:$K$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,13 +304,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要提供模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供明确规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同多页的要求一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第3部分？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明确规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过ESKO流程搞定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体需要细节讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会不会有导入4种语言而要选择其中的两个语言，或者只会是导入几种语言，这个页面就会使用导入的几种语言？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请提供规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码类型是什么？条码内容是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话沟通，没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个同多页应该是相同的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页样例如何对应的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW00341?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体样例？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有功能满足功能，应当没必要增加过多选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同多页标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该理解了，根据样本讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同多页标签，现有功能已经可以实现，必要是可以单独设定这个功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细具体规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要开发时碰到具体案例才知道如何调整，好像碰到了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目增加版本号，是吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经实际测试后确认规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>将变量标识进行排</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="等线 (正文)"/>
         <family val="3"/>
         <charset val="134"/>
@@ -329,9 +428,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>版</t>
     </r>
@@ -349,31 +447,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要提供模版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供明确规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同多页的要求一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第3部分？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明确规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可通过ESKO流程搞定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体需要细节讨论</t>
+    <t>当来档中同一个语言有不同国家时，如何合并，比如美国和英国，只视为一个？会不会出现，虽然语言相同，但内容会略有偏差？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,19 +563,42 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线 (正文)"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +625,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +879,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,9 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,23 +933,65 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,6 +1009,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2138384</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675109</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>570580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B08FA3-7321-4A4D-B9BD-22BFCA9B19D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10825920" y="4107803"/>
+          <a:ext cx="3230203" cy="1616400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,10 +1380,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1170,80 +1391,86 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="93.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="34.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="48" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="25" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="12" t="s">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="25" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="51" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="K3" s="42"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="51" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1252,838 +1479,924 @@
       <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>5</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="H4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="21"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:13" ht="74.25" customHeight="1">
+      <c r="A5" s="32"/>
       <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19">
+      <c r="G5" s="19">
         <v>20</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="40">
+      <c r="I5" s="27">
         <v>1</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A6" s="32"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="H6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="41">
+      <c r="I6" s="28">
         <v>1</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A7" s="32"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="H7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="41">
+      <c r="I7" s="28">
         <v>0.7</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57" customHeight="1">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:13" ht="57" customHeight="1">
+      <c r="A8" s="32"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>10</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="H8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="41">
+      <c r="I8" s="28">
         <v>0.7</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="27" customHeight="1">
+      <c r="A9" s="32"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>5</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="H9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="41">
+      <c r="I9" s="28">
         <v>1</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" ht="63" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="63" customHeight="1">
+      <c r="A10" s="32"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15">
+        <v>15</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="15">
-        <v>15</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="41">
-        <v>0.85</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1">
-      <c r="A11" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="61.5" customHeight="1">
+      <c r="A11" s="32"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <v>120</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="H11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I11" s="20">
         <v>85</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25" customHeight="1">
+      <c r="A12" s="32"/>
       <c r="B12" s="17">
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19">
+      <c r="G12" s="19">
         <v>5</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="H12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A13" s="32"/>
       <c r="B13" s="17">
         <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="59"/>
+      <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="19">
+      <c r="G13" s="19">
         <v>10</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="H13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="24">
+      <c r="I13" s="24">
         <v>80</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51.75" customHeight="1">
+      <c r="A14" s="32"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="H14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <v>10</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="H15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="20">
         <v>80</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="15">
         <v>30</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="H16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I16" s="20">
         <v>100</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A17" s="26"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <v>30</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="H17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="20">
+      <c r="I17" s="20">
         <v>70</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="15">
         <v>10</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="H18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>70</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="26"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A19" s="32"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <v>5</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="H19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="20">
+      <c r="I19" s="20">
         <v>100</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25" customHeight="1">
+      <c r="A20" s="32"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="15">
+      <c r="G20" s="15">
         <v>10</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="H20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="20">
         <v>100</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A21" s="32"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>5</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="H21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="20">
+      <c r="I21" s="20">
         <v>100</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A22" s="32"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G22" s="15">
         <v>20</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="H22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="20">
+      <c r="I22" s="20">
         <v>100</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A23" s="26"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A23" s="32"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <v>5</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="H23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="20">
+      <c r="I23" s="20">
         <v>100</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="2">
+      <c r="J23" s="20"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" s="56" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="49">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="15">
+      <c r="G24" s="52">
         <v>10</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="H24" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="20">
+      <c r="I24" s="54">
         <v>0</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="48.75" customHeight="1">
+      <c r="A25" s="32"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <v>40</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="41">
+      <c r="I25" s="28">
         <v>1</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="48.75" customHeight="1">
+      <c r="A26" s="33"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="15">
+      <c r="G26" s="15">
         <v>5</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="H26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="20">
+      <c r="I26" s="20">
         <v>100</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="56" customFormat="1" ht="25" customHeight="1">
+      <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="49">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="52">
         <v>10</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="H27" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="39"/>
-    </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="2">
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+    </row>
+    <row r="28" spans="1:11" s="56" customFormat="1" ht="25" customHeight="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="49">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="15">
+      <c r="G28" s="52">
         <v>5</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="H28" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="2">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11" s="56" customFormat="1" ht="25" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="49">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="52">
         <v>10</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="2">
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+    </row>
+    <row r="30" spans="1:11" s="56" customFormat="1" ht="25" customHeight="1">
+      <c r="A30" s="57"/>
+      <c r="B30" s="49">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="15">
+      <c r="G30" s="52">
         <v>5</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="H30" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="39"/>
-    </row>
-    <row r="31" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="2">
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="1:11" s="56" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="49">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="52">
         <v>15</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="H31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="39"/>
-    </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+    </row>
+    <row r="32" spans="1:11" s="56" customFormat="1" ht="25" customHeight="1">
+      <c r="A32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="49">
         <v>29</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="52">
         <v>5</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="H32" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="39"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="2">
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+    </row>
+    <row r="33" spans="1:11" s="56" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="49">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="52">
         <v>25</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="H33" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="39"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="C34" s="9"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="21">
+      <c r="D34" s="9"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="21">
       <c r="C35" s="9"/>
-      <c r="F35" s="4">
-        <f>SUM(F4:F33)</f>
+      <c r="D35" s="9"/>
+      <c r="G35" s="4">
+        <f>SUM(G4:G33)</f>
         <v>460</v>
       </c>
-      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="6">
-        <f>SUM(I4:I32)</f>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6">
+        <f>SUM(J4:J32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <autoFilter ref="A1:K33" xr:uid="{4411E1D0-CC5D-7942-94E9-44FC66210CEA}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="13">
     <mergeCell ref="A4:A26"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="58" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>